--- a/2017/03_DetailDesign/20171011_Thiet lap thoi gian lap lai/OOF0033_Thiet lap thoi gian lap lai.xlsx
+++ b/2017/03_DetailDesign/20171011_Thiet lap thoi gian lap lai/OOF0033_Thiet lap thoi gian lap lai.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2_SVN\SVN_ERP90\10_DOCUMENT\13_DETAIL_DESIGN\2.PROJECTS\09.KIMYEN\20171011_Cong viec\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SVN\ERP90\10_DOCUMENT\13_DETAIL_DESIGN\2.PROJECTS\09.KIMYEN\20170921_Phrase 3_Quan ly cong viec\20171011_Thiet lap thoi gian lap lai\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{AA906253-3FE3-41B3-AE50-810E37C2657D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="920"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Update History" sheetId="4" r:id="rId1"/>
@@ -35,17 +36,17 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Layout Screen'!$A$1:$I$24</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Update History'!$A$1:$J$42</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>vinhphong</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -59,7 +60,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -73,7 +74,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -87,7 +88,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -101,7 +102,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -115,7 +116,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -129,7 +130,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -153,7 +154,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0" shapeId="0">
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -177,7 +178,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A4" authorId="0" shapeId="0">
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -190,7 +191,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B4" authorId="0" shapeId="0">
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -203,7 +204,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C4" authorId="0" shapeId="0">
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -216,7 +217,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="0" shapeId="0">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -229,7 +230,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0" shapeId="0">
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -253,7 +254,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C5" authorId="0" shapeId="0">
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -282,12 +283,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>vinhphong</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -301,7 +302,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -315,7 +316,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -329,7 +330,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
@@ -343,7 +344,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
       <text>
         <r>
           <rPr>
@@ -357,7 +358,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
       <text>
         <r>
           <rPr>
@@ -381,7 +382,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I6" authorId="0" shapeId="0">
+    <comment ref="I6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
       <text>
         <r>
           <rPr>
@@ -395,7 +396,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I8" authorId="0" shapeId="0">
+    <comment ref="I8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
       <text>
         <r>
           <rPr>
@@ -414,13 +415,13 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Le Thi Thu Hien</author>
     <author>vinhphong</author>
   </authors>
   <commentList>
-    <comment ref="D4" authorId="0" shapeId="0">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -434,7 +435,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="1" shapeId="0">
+    <comment ref="E4" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -447,7 +448,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F4" authorId="1" shapeId="0">
+    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -460,7 +461,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G4" authorId="1" shapeId="0">
+    <comment ref="G4" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -473,7 +474,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H4" authorId="1" shapeId="0">
+    <comment ref="H4" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
       <text>
         <r>
           <rPr>
@@ -499,7 +500,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I4" authorId="1" shapeId="0">
+    <comment ref="I4" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
       <text>
         <r>
           <rPr>
@@ -516,7 +517,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J4" authorId="1" shapeId="0">
+    <comment ref="J4" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
       <text>
         <r>
           <rPr>
@@ -531,7 +532,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K4" authorId="1" shapeId="0">
+    <comment ref="K4" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
       <text>
         <r>
           <rPr>
@@ -623,7 +624,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L4" authorId="1" shapeId="0">
+    <comment ref="L4" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
       <text>
         <r>
           <rPr>
@@ -658,7 +659,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M4" authorId="0" shapeId="0">
+    <comment ref="M4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -674,7 +675,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N4" authorId="1" shapeId="0">
+    <comment ref="N4" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -693,12 +694,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>vinhphong</author>
   </authors>
   <commentList>
-    <comment ref="D4" authorId="0" shapeId="0">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -711,10 +712,10 @@
         </r>
       </text>
     </comment>
-    <comment ref="F4" authorId="0" shapeId="0">
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text/>
     </comment>
-    <comment ref="G4" authorId="0" shapeId="0">
+    <comment ref="G4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
         <r>
           <rPr>
@@ -727,7 +728,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I4" authorId="0" shapeId="0">
+    <comment ref="I4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
       <text>
         <r>
           <rPr>
@@ -749,7 +750,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J4" authorId="0" shapeId="0">
+    <comment ref="J4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
       <text>
         <r>
           <rPr>
@@ -767,12 +768,12 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>binhminh</author>
   </authors>
   <commentList>
-    <comment ref="D4" authorId="0" shapeId="0">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -785,7 +786,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0" shapeId="0">
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
         <r>
           <rPr>
@@ -798,7 +799,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F4" authorId="0" shapeId="0">
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
       <text>
         <r>
           <rPr>
@@ -816,13 +817,13 @@
 </file>
 
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>vinhphong</author>
     <author>Le Thi Thu Hien</author>
   </authors>
   <commentList>
-    <comment ref="H4" authorId="0" shapeId="0">
+    <comment ref="H4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -839,7 +840,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I4" authorId="0" shapeId="0">
+    <comment ref="I4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
       <text>
         <r>
           <rPr>
@@ -854,7 +855,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J4" authorId="0" shapeId="0">
+    <comment ref="J4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000003000000}">
       <text>
         <r>
           <rPr>
@@ -872,7 +873,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K4" authorId="0" shapeId="0">
+    <comment ref="K4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000004000000}">
       <text>
         <r>
           <rPr>
@@ -886,7 +887,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O4" authorId="0" shapeId="0">
+    <comment ref="O4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000005000000}">
       <text>
         <r>
           <rPr>
@@ -900,7 +901,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P4" authorId="0" shapeId="0">
+    <comment ref="P4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000006000000}">
       <text>
         <r>
           <rPr>
@@ -914,7 +915,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R4" authorId="1" shapeId="0">
+    <comment ref="R4" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0500-000007000000}">
       <text>
         <r>
           <rPr>
@@ -943,13 +944,13 @@
 </file>
 
 <file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>vinhphong</author>
     <author>binhminh</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
       <text>
         <r>
           <rPr>
@@ -963,7 +964,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000002000000}">
       <text>
         <r>
           <rPr>
@@ -977,7 +978,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000003000000}">
       <text>
         <r>
           <rPr>
@@ -991,7 +992,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000004000000}">
       <text>
         <r>
           <rPr>
@@ -1004,7 +1005,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000005000000}">
       <text>
         <r>
           <rPr>
@@ -1018,7 +1019,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000006000000}">
       <text>
         <r>
           <rPr>
@@ -1032,7 +1033,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000007000000}">
       <text>
         <r>
           <rPr>
@@ -1056,7 +1057,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0" shapeId="0">
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000008000000}">
       <text>
         <r>
           <rPr>
@@ -1080,7 +1081,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A5" authorId="1" shapeId="0">
+    <comment ref="A5" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0600-000009000000}">
       <text>
         <r>
           <rPr>
@@ -1093,7 +1094,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A8" authorId="1" shapeId="0">
+    <comment ref="A8" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0600-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -1106,7 +1107,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B9" authorId="1" shapeId="0">
+    <comment ref="B9" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0600-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -1119,7 +1120,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B12" authorId="1" shapeId="0">
+    <comment ref="B12" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0600-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -1132,7 +1133,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B20" authorId="1" shapeId="0">
+    <comment ref="B20" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0600-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -1146,7 +1147,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A23" authorId="1" shapeId="0">
+    <comment ref="A23" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0600-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -1166,13 +1167,13 @@
 </file>
 
 <file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>vinhphong</author>
     <author>binhminh</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000001000000}">
       <text>
         <r>
           <rPr>
@@ -1186,7 +1187,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000002000000}">
       <text>
         <r>
           <rPr>
@@ -1200,7 +1201,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000003000000}">
       <text>
         <r>
           <rPr>
@@ -1214,7 +1215,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000004000000}">
       <text>
         <r>
           <rPr>
@@ -1227,7 +1228,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000005000000}">
       <text>
         <r>
           <rPr>
@@ -1241,7 +1242,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000006000000}">
       <text>
         <r>
           <rPr>
@@ -1255,7 +1256,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000007000000}">
       <text>
         <r>
           <rPr>
@@ -1279,7 +1280,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0" shapeId="0">
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000008000000}">
       <text>
         <r>
           <rPr>
@@ -1303,7 +1304,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A5" authorId="1" shapeId="0">
+    <comment ref="A5" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0700-000009000000}">
       <text>
         <r>
           <rPr>
@@ -1316,7 +1317,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A8" authorId="1" shapeId="0">
+    <comment ref="A8" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0700-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -2079,27 +2080,10 @@
     <t>Tham khảo luồng sử lý sự kiện: Luồng 1 và Luồng 2</t>
   </si>
   <si>
-    <t>TMF0020</t>
-  </si>
-  <si>
-    <t>ASOFT-TM</t>
-  </si>
-  <si>
     <t>Thiết lập thời gian lặp lại</t>
   </si>
   <si>
     <t>Thiết lập thời gian lặp lại của công việc</t>
-  </si>
-  <si>
-    <t>Login TM
--&gt; Nghiệp vụ
--&gt; Công việc
--&gt; Danh sách công việc
--&gt; Thêm/Sửa
-    (hoặc Xem chi tiết công việc -&gt; Sửa)
--&gt; Cập nhất công việc 
--&gt; Chọn button [lặp lại]
--&gt; Màn hình [Thiết lập thời gian lập lại - TMF0020]</t>
   </si>
   <si>
     <t>Chu kỳ lặp lại</t>
@@ -2362,18 +2346,10 @@
 </t>
   </si>
   <si>
-    <t>Với
-@APK: Nếu Load từ TMF2021 thỉ @APK  =TMF2021.APK
-@TableID: Nếu load từ TMF2021 thì @TablID = 'TMT20201'</t>
-  </si>
-  <si>
     <t>Kiểm tra khác đơn vị</t>
   </si>
   <si>
     <t>IV. LƯU EDIT (SAVE_CLICK)</t>
-  </si>
-  <si>
-    <t>Thực thi câu @SQL003: Load dữ liệu cho Form TMF0020</t>
   </si>
   <si>
     <t>IV. LƯU DELETE (SAVE_CLICK)</t>
@@ -2504,16 +2480,33 @@
     <t>Thực thi  @SQL001 nếu kết quả trả về 0 thì cảnh báo messge 00ML000050  ngược lại thì thực @SQL006</t>
   </si>
   <si>
-    <t>Luồng 3: Sự kiện click_button Delete: chương trình sẽ gọi sự kiện xóa bên dưới và đóng màn hình TMF0020 quay về màn hình TMF2021</t>
+    <t>OOF0033</t>
+  </si>
+  <si>
+    <t>Login TM
+-&gt; Nghiệp vụ
+-&gt; Công việc
+-&gt; Danh sách công việc
+-&gt; Thêm/Sửa
+    (hoặc Xem chi tiết công việc -&gt; Sửa)
+-&gt; Cập nhất công việc 
+-&gt; Chọn button [lặp lại]
+-&gt; Màn hình [Thiết lập thời gian lập lại - OOF0033]</t>
+  </si>
+  <si>
+    <t>Thực thi câu @SQL003: Load dữ liệu cho Form OOF0033</t>
+  </si>
+  <si>
+    <t>ASOFT-OO</t>
   </si>
   <si>
     <t>Select Top 1 1 
-from TMT0020
+from OOT0033
 Where  M.DivisionID = @DivisionID and M.InheritVoucherID = @APK and M.InheritTableID = @TableID</t>
   </si>
   <si>
     <t>Select Top 1 1 
-From TMT0020 M With (NOLOCK)
+From OOT0033 M With (NOLOCK)
 Where M.InheritVoucherID = @APK and M.InheritTableID = @TableID</t>
   </si>
   <si>
@@ -2522,11 +2515,11 @@
 , M.IsFriday, M.IsSaturday, M.TheDays, M.TheDay, M.TheMonth, M.DayOfWeeks
 , M.WeekOfMonths, M.FromDate, M.IsToDate, M.ToDate, M.StartTime, M.EndTime
 , M.IsReminder, M.Reminder, M.CreateUserID, M.CreateDate, M.LastModifyUserID, M.LastModifyDate 
-From TMT0020 M With (NOLOCK)
+From OOT0033 M With (NOLOCK)
 Where M.InheritVoucherID = @APK and M.InheritTableID = @TableID</t>
   </si>
   <si>
-    <t xml:space="preserve">INSERT INTO TMT0020
+    <t xml:space="preserve">INSERT INTO OOT0033
            (DivisionID
            ,InheritVoucherID
            ,InheritTableID
@@ -2587,7 +2580,7 @@
 </t>
   </si>
   <si>
-    <t>UPDATE TMT0020 SET  
+    <t>UPDATE OOT0033 SET  
        DivisionID = @DivisionID
       , RecurrenceTypeID = @RecurrenceTypeID
       , DayOfMonthYear = @DayOfMonthYear
@@ -2615,14 +2608,22 @@
 Where InheritVoucherID = @APK and InheritTableID = @TableID</t>
   </si>
   <si>
-    <t>Delete From TMT0020
+    <t>Delete From OOT0033
 Where M.InheritVoucherID = @APK and M.InheritTableID = @TableID</t>
+  </si>
+  <si>
+    <t>Với
+@APK: Nếu Load từ OOF2111 thỉ @APK  =OOF2111.APK
+@TableID: Nếu load từ OOF2111 thì @TablID = 'OOT2110'</t>
+  </si>
+  <si>
+    <t>Luồng 3: Sự kiện click_button Delete: chương trình sẽ gọi sự kiện xóa bên dưới và đóng màn hình OOF0033 quay về màn hình OOF2111</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -3485,39 +3486,39 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3564,31 +3565,49 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3600,28 +3619,10 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3663,20 +3664,26 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>256408</xdr:colOff>
+      <xdr:colOff>8756</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>532854</xdr:rowOff>
+      <xdr:rowOff>637626</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{262F7690-4D1C-45BE-8543-B5A074BF5FDB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3689,8 +3696,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="552450" y="647700"/>
-          <a:ext cx="6133333" cy="4371429"/>
+          <a:off x="285750" y="733425"/>
+          <a:ext cx="6152381" cy="4390476"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3719,7 +3726,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Group 1"/>
+        <xdr:cNvPr id="2" name="Group 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -3732,7 +3745,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="TextBox 2"/>
+          <xdr:cNvPr id="3" name="TextBox 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3779,7 +3798,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="4" name="Straight Arrow Connector 3"/>
+          <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000004000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="8" idx="3"/>
             <a:endCxn id="9" idx="1"/>
@@ -3814,7 +3839,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="5" name="Rectangle 3"/>
+          <xdr:cNvPr id="5" name="Rectangle 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000005000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3882,7 +3913,7 @@
                 <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
                 <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
               </a:rPr>
-              <a:t>Form TMF0020</a:t>
+              <a:t>Form OOF0033</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="800">
               <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
@@ -3893,7 +3924,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="6" name="Straight Arrow Connector 5"/>
+          <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000006000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="5" idx="3"/>
             <a:endCxn id="8" idx="1"/>
@@ -3928,7 +3965,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="7" name="TextBox 6"/>
+          <xdr:cNvPr id="7" name="TextBox 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000007000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3975,7 +4018,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="8" name="Flowchart: Decision 7"/>
+          <xdr:cNvPr id="8" name="Flowchart: Decision 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000008000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4018,7 +4067,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="9" name="Flowchart: Direct Access Storage 8"/>
+          <xdr:cNvPr id="9" name="Flowchart: Direct Access Storage 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000009000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4111,7 +4166,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="11" name="Rectangle 3"/>
+          <xdr:cNvPr id="11" name="Rectangle 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4164,14 +4225,20 @@
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
               </a:rPr>
-              <a:t>TMF0020</a:t>
+              <a:t>OOF0033</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="12" name="TextBox 11"/>
+          <xdr:cNvPr id="12" name="TextBox 11">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4225,7 +4292,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="13" name="Straight Arrow Connector 12"/>
+          <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="9" idx="4"/>
             <a:endCxn id="11" idx="1"/>
@@ -4260,7 +4333,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="23" name="Flowchart: Direct Access Storage 22"/>
+          <xdr:cNvPr id="23" name="Flowchart: Direct Access Storage 22">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000017000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4361,7 +4440,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="26" name="Elbow Connector 225"/>
+          <xdr:cNvPr id="26" name="Elbow Connector 225">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="8" idx="2"/>
             <a:endCxn id="23" idx="1"/>
@@ -4396,7 +4481,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="27" name="Elbow Connector 225"/>
+          <xdr:cNvPr id="27" name="Elbow Connector 225">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="23" idx="4"/>
             <a:endCxn id="11" idx="2"/>
@@ -4431,7 +4522,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="58" name="Flowchart: Decision 57"/>
+          <xdr:cNvPr id="58" name="Flowchart: Decision 57">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00003A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4488,7 +4585,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="60" name="Rectangle 3"/>
+          <xdr:cNvPr id="60" name="Rectangle 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00003C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4550,7 +4653,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="61" name="Elbow Connector 225"/>
+          <xdr:cNvPr id="61" name="Elbow Connector 225">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00003D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="58" idx="2"/>
             <a:endCxn id="60" idx="0"/>
@@ -4587,7 +4696,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="64" name="TextBox 63"/>
+          <xdr:cNvPr id="64" name="TextBox 63">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000040000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4634,7 +4749,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="66" name="TextBox 65"/>
+          <xdr:cNvPr id="66" name="TextBox 65">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000042000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4697,7 +4818,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="38" name="Group 37"/>
+        <xdr:cNvPr id="38" name="Group 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000026000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -4710,7 +4837,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="39" name="TextBox 38"/>
+          <xdr:cNvPr id="39" name="TextBox 38">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000027000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4757,7 +4890,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="40" name="Straight Arrow Connector 39"/>
+          <xdr:cNvPr id="40" name="Straight Arrow Connector 39">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000028000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="44" idx="3"/>
             <a:endCxn id="45" idx="1"/>
@@ -4792,7 +4931,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="41" name="Rectangle 3"/>
+          <xdr:cNvPr id="41" name="Rectangle 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000029000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4860,7 +5005,7 @@
                 <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
                 <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
               </a:rPr>
-              <a:t>Form TMF0020</a:t>
+              <a:t>Form OOF0033</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="800">
               <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
@@ -4871,7 +5016,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="42" name="Straight Arrow Connector 41"/>
+          <xdr:cNvPr id="42" name="Straight Arrow Connector 41">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00002A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="41" idx="3"/>
             <a:endCxn id="62" idx="1"/>
@@ -4906,7 +5057,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="43" name="TextBox 42"/>
+          <xdr:cNvPr id="43" name="TextBox 42">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00002B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4953,7 +5110,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="44" name="Flowchart: Decision 43"/>
+          <xdr:cNvPr id="44" name="Flowchart: Decision 43">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00002C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4996,7 +5159,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="45" name="Flowchart: Direct Access Storage 44"/>
+          <xdr:cNvPr id="45" name="Flowchart: Direct Access Storage 44">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00002D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5089,7 +5258,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="46" name="Rectangle 3"/>
+          <xdr:cNvPr id="46" name="Rectangle 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00002E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5142,7 +5317,7 @@
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
               </a:rPr>
-              <a:t>TMF0020</a:t>
+              <a:t>OOF0033</a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -5157,14 +5332,20 @@
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
               </a:rPr>
-              <a:t>và Quay về Form TMF2021</a:t>
+              <a:t>và Quay về Form OOF2111</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="47" name="TextBox 46"/>
+          <xdr:cNvPr id="47" name="TextBox 46">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00002F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5218,7 +5399,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="48" name="Straight Arrow Connector 47"/>
+          <xdr:cNvPr id="48" name="Straight Arrow Connector 47">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000030000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="45" idx="4"/>
             <a:endCxn id="46" idx="1"/>
@@ -5253,7 +5440,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="55" name="Flowchart: Direct Access Storage 54"/>
+          <xdr:cNvPr id="55" name="Flowchart: Direct Access Storage 54">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000037000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5354,7 +5547,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="56" name="Elbow Connector 225"/>
+          <xdr:cNvPr id="56" name="Elbow Connector 225">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000038000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="44" idx="2"/>
             <a:endCxn id="55" idx="1"/>
@@ -5389,7 +5588,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="57" name="Elbow Connector 225"/>
+          <xdr:cNvPr id="57" name="Elbow Connector 225">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000039000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="55" idx="4"/>
             <a:endCxn id="46" idx="2"/>
@@ -5424,7 +5629,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="62" name="Flowchart: Decision 61"/>
+          <xdr:cNvPr id="62" name="Flowchart: Decision 61">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00003E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5478,7 +5689,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="65" name="Straight Arrow Connector 64"/>
+          <xdr:cNvPr id="65" name="Straight Arrow Connector 64">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000041000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="62" idx="3"/>
             <a:endCxn id="80" idx="1"/>
@@ -5513,7 +5730,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="68" name="Elbow Connector 225"/>
+          <xdr:cNvPr id="68" name="Elbow Connector 225">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000044000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="62" idx="2"/>
             <a:endCxn id="46" idx="2"/>
@@ -5550,7 +5773,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="72" name="TextBox 71"/>
+          <xdr:cNvPr id="72" name="TextBox 71">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000048000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5600,7 +5829,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="73" name="TextBox 72"/>
+          <xdr:cNvPr id="73" name="TextBox 72">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000049000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5650,7 +5885,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="80" name="Flowchart: Decision 79"/>
+          <xdr:cNvPr id="80" name="Flowchart: Decision 79">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000050000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5749,7 +5990,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="82" name="Straight Arrow Connector 81"/>
+          <xdr:cNvPr id="82" name="Straight Arrow Connector 81">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000052000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="80" idx="3"/>
           </xdr:cNvCxnSpPr>
@@ -5783,7 +6030,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="85" name="Elbow Connector 225"/>
+          <xdr:cNvPr id="85" name="Elbow Connector 225">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000055000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="80" idx="2"/>
             <a:endCxn id="46" idx="2"/>
@@ -5820,7 +6073,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="93" name="TextBox 92"/>
+          <xdr:cNvPr id="93" name="TextBox 92">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00005D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5870,7 +6129,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="94" name="TextBox 93"/>
+          <xdr:cNvPr id="94" name="TextBox 93">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00005E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5920,7 +6185,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="67" name="Rectangle 3"/>
+          <xdr:cNvPr id="67" name="Rectangle 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000043000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5987,7 +6258,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="70" name="Flowchart: Decision 69"/>
+          <xdr:cNvPr id="70" name="Flowchart: Decision 69">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000046000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6050,7 +6327,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="71" name="Elbow Connector 225"/>
+          <xdr:cNvPr id="71" name="Elbow Connector 225">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000047000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="70" idx="2"/>
             <a:endCxn id="67" idx="0"/>
@@ -6087,7 +6370,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="78" name="TextBox 77"/>
+          <xdr:cNvPr id="78" name="TextBox 77">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00004E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6134,7 +6423,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="79" name="TextBox 78"/>
+          <xdr:cNvPr id="79" name="TextBox 78">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00004F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6261,6 +6556,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -6296,6 +6608,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -6471,11 +6800,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="E19" sqref="E19:J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6491,10 +6820,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="164" t="s">
+      <c r="A1" s="163" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="164"/>
+      <c r="B1" s="163"/>
       <c r="C1" s="29" t="s">
         <v>1</v>
       </c>
@@ -6505,7 +6834,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="34" t="s">
-        <v>187</v>
+        <v>300</v>
       </c>
       <c r="G1" s="29" t="s">
         <v>5</v>
@@ -6521,19 +6850,19 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="164"/>
-      <c r="B2" s="164"/>
+      <c r="A2" s="163"/>
+      <c r="B2" s="163"/>
       <c r="C2" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="34" t="s">
-        <v>188</v>
+        <v>303</v>
       </c>
       <c r="E2" s="29" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="34" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G2" s="29" t="s">
         <v>6</v>
@@ -6561,14 +6890,14 @@
       <c r="D4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="164" t="s">
+      <c r="E4" s="163" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="164"/>
-      <c r="G4" s="164"/>
-      <c r="H4" s="164"/>
-      <c r="I4" s="164"/>
-      <c r="J4" s="164"/>
+      <c r="F4" s="163"/>
+      <c r="G4" s="163"/>
+      <c r="H4" s="163"/>
+      <c r="I4" s="163"/>
+      <c r="J4" s="163"/>
     </row>
     <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="73">
@@ -6585,14 +6914,14 @@
         <f>H1</f>
         <v>Hoàng Vũ</v>
       </c>
-      <c r="E5" s="165" t="s">
+      <c r="E5" s="164" t="s">
         <v>166</v>
       </c>
-      <c r="F5" s="155"/>
-      <c r="G5" s="155"/>
-      <c r="H5" s="155"/>
-      <c r="I5" s="155"/>
-      <c r="J5" s="155"/>
+      <c r="F5" s="165"/>
+      <c r="G5" s="165"/>
+      <c r="H5" s="165"/>
+      <c r="I5" s="165"/>
+      <c r="J5" s="165"/>
     </row>
     <row r="6" spans="1:10" s="94" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A6" s="76">
@@ -6619,12 +6948,12 @@
       </c>
       <c r="C7" s="99"/>
       <c r="D7" s="100"/>
-      <c r="E7" s="159"/>
-      <c r="F7" s="160"/>
-      <c r="G7" s="160"/>
-      <c r="H7" s="160"/>
-      <c r="I7" s="160"/>
-      <c r="J7" s="161"/>
+      <c r="E7" s="155"/>
+      <c r="F7" s="156"/>
+      <c r="G7" s="156"/>
+      <c r="H7" s="156"/>
+      <c r="I7" s="156"/>
+      <c r="J7" s="157"/>
     </row>
     <row r="8" spans="1:10" s="96" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="79">
@@ -6635,12 +6964,12 @@
       </c>
       <c r="C8" s="99"/>
       <c r="D8" s="100"/>
-      <c r="E8" s="159"/>
-      <c r="F8" s="162"/>
-      <c r="G8" s="162"/>
-      <c r="H8" s="162"/>
-      <c r="I8" s="162"/>
-      <c r="J8" s="163"/>
+      <c r="E8" s="155"/>
+      <c r="F8" s="158"/>
+      <c r="G8" s="158"/>
+      <c r="H8" s="158"/>
+      <c r="I8" s="158"/>
+      <c r="J8" s="159"/>
     </row>
     <row r="9" spans="1:10" s="98" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="80">
@@ -6651,12 +6980,12 @@
       </c>
       <c r="C9" s="99"/>
       <c r="D9" s="100"/>
-      <c r="E9" s="159"/>
-      <c r="F9" s="160"/>
-      <c r="G9" s="160"/>
-      <c r="H9" s="160"/>
-      <c r="I9" s="160"/>
-      <c r="J9" s="161"/>
+      <c r="E9" s="155"/>
+      <c r="F9" s="156"/>
+      <c r="G9" s="156"/>
+      <c r="H9" s="156"/>
+      <c r="I9" s="156"/>
+      <c r="J9" s="157"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="81">
@@ -6667,12 +6996,12 @@
       </c>
       <c r="C10" s="78"/>
       <c r="D10" s="73"/>
-      <c r="E10" s="156"/>
-      <c r="F10" s="157"/>
-      <c r="G10" s="157"/>
-      <c r="H10" s="157"/>
-      <c r="I10" s="157"/>
-      <c r="J10" s="158"/>
+      <c r="E10" s="160"/>
+      <c r="F10" s="161"/>
+      <c r="G10" s="161"/>
+      <c r="H10" s="161"/>
+      <c r="I10" s="161"/>
+      <c r="J10" s="162"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="82">
@@ -6683,12 +7012,12 @@
       </c>
       <c r="C11" s="78"/>
       <c r="D11" s="73"/>
-      <c r="E11" s="156"/>
-      <c r="F11" s="157"/>
-      <c r="G11" s="157"/>
-      <c r="H11" s="157"/>
-      <c r="I11" s="157"/>
-      <c r="J11" s="158"/>
+      <c r="E11" s="160"/>
+      <c r="F11" s="161"/>
+      <c r="G11" s="161"/>
+      <c r="H11" s="161"/>
+      <c r="I11" s="161"/>
+      <c r="J11" s="162"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="83">
@@ -6699,12 +7028,12 @@
       </c>
       <c r="C12" s="78"/>
       <c r="D12" s="73"/>
-      <c r="E12" s="156"/>
-      <c r="F12" s="157"/>
-      <c r="G12" s="157"/>
-      <c r="H12" s="157"/>
-      <c r="I12" s="157"/>
-      <c r="J12" s="158"/>
+      <c r="E12" s="160"/>
+      <c r="F12" s="161"/>
+      <c r="G12" s="161"/>
+      <c r="H12" s="161"/>
+      <c r="I12" s="161"/>
+      <c r="J12" s="162"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="84">
@@ -6715,12 +7044,12 @@
       </c>
       <c r="C13" s="78"/>
       <c r="D13" s="73"/>
-      <c r="E13" s="156"/>
-      <c r="F13" s="157"/>
-      <c r="G13" s="157"/>
-      <c r="H13" s="157"/>
-      <c r="I13" s="157"/>
-      <c r="J13" s="158"/>
+      <c r="E13" s="160"/>
+      <c r="F13" s="161"/>
+      <c r="G13" s="161"/>
+      <c r="H13" s="161"/>
+      <c r="I13" s="161"/>
+      <c r="J13" s="162"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="85">
@@ -6731,12 +7060,12 @@
       </c>
       <c r="C14" s="78"/>
       <c r="D14" s="73"/>
-      <c r="E14" s="156"/>
-      <c r="F14" s="157"/>
-      <c r="G14" s="157"/>
-      <c r="H14" s="157"/>
-      <c r="I14" s="157"/>
-      <c r="J14" s="158"/>
+      <c r="E14" s="160"/>
+      <c r="F14" s="161"/>
+      <c r="G14" s="161"/>
+      <c r="H14" s="161"/>
+      <c r="I14" s="161"/>
+      <c r="J14" s="162"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="73">
@@ -6747,12 +7076,12 @@
       </c>
       <c r="C15" s="78"/>
       <c r="D15" s="73"/>
-      <c r="E15" s="155"/>
-      <c r="F15" s="155"/>
-      <c r="G15" s="155"/>
-      <c r="H15" s="155"/>
-      <c r="I15" s="155"/>
-      <c r="J15" s="155"/>
+      <c r="E15" s="165"/>
+      <c r="F15" s="165"/>
+      <c r="G15" s="165"/>
+      <c r="H15" s="165"/>
+      <c r="I15" s="165"/>
+      <c r="J15" s="165"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="76">
@@ -6763,12 +7092,12 @@
       </c>
       <c r="C16" s="78"/>
       <c r="D16" s="73"/>
-      <c r="E16" s="155"/>
-      <c r="F16" s="155"/>
-      <c r="G16" s="155"/>
-      <c r="H16" s="155"/>
-      <c r="I16" s="155"/>
-      <c r="J16" s="155"/>
+      <c r="E16" s="165"/>
+      <c r="F16" s="165"/>
+      <c r="G16" s="165"/>
+      <c r="H16" s="165"/>
+      <c r="I16" s="165"/>
+      <c r="J16" s="165"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="77">
@@ -6779,12 +7108,12 @@
       </c>
       <c r="C17" s="78"/>
       <c r="D17" s="73"/>
-      <c r="E17" s="155"/>
-      <c r="F17" s="155"/>
-      <c r="G17" s="155"/>
-      <c r="H17" s="155"/>
-      <c r="I17" s="155"/>
-      <c r="J17" s="155"/>
+      <c r="E17" s="165"/>
+      <c r="F17" s="165"/>
+      <c r="G17" s="165"/>
+      <c r="H17" s="165"/>
+      <c r="I17" s="165"/>
+      <c r="J17" s="165"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="79">
@@ -6795,12 +7124,12 @@
       </c>
       <c r="C18" s="78"/>
       <c r="D18" s="73"/>
-      <c r="E18" s="155"/>
-      <c r="F18" s="155"/>
-      <c r="G18" s="155"/>
-      <c r="H18" s="155"/>
-      <c r="I18" s="155"/>
-      <c r="J18" s="155"/>
+      <c r="E18" s="165"/>
+      <c r="F18" s="165"/>
+      <c r="G18" s="165"/>
+      <c r="H18" s="165"/>
+      <c r="I18" s="165"/>
+      <c r="J18" s="165"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="80">
@@ -6811,12 +7140,12 @@
       </c>
       <c r="C19" s="78"/>
       <c r="D19" s="73"/>
-      <c r="E19" s="155"/>
-      <c r="F19" s="155"/>
-      <c r="G19" s="155"/>
-      <c r="H19" s="155"/>
-      <c r="I19" s="155"/>
-      <c r="J19" s="155"/>
+      <c r="E19" s="165"/>
+      <c r="F19" s="165"/>
+      <c r="G19" s="165"/>
+      <c r="H19" s="165"/>
+      <c r="I19" s="165"/>
+      <c r="J19" s="165"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="81">
@@ -6827,12 +7156,12 @@
       </c>
       <c r="C20" s="78"/>
       <c r="D20" s="73"/>
-      <c r="E20" s="155"/>
-      <c r="F20" s="155"/>
-      <c r="G20" s="155"/>
-      <c r="H20" s="155"/>
-      <c r="I20" s="155"/>
-      <c r="J20" s="155"/>
+      <c r="E20" s="165"/>
+      <c r="F20" s="165"/>
+      <c r="G20" s="165"/>
+      <c r="H20" s="165"/>
+      <c r="I20" s="165"/>
+      <c r="J20" s="165"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="82">
@@ -6843,12 +7172,12 @@
       </c>
       <c r="C21" s="78"/>
       <c r="D21" s="73"/>
-      <c r="E21" s="155"/>
-      <c r="F21" s="155"/>
-      <c r="G21" s="155"/>
-      <c r="H21" s="155"/>
-      <c r="I21" s="155"/>
-      <c r="J21" s="155"/>
+      <c r="E21" s="165"/>
+      <c r="F21" s="165"/>
+      <c r="G21" s="165"/>
+      <c r="H21" s="165"/>
+      <c r="I21" s="165"/>
+      <c r="J21" s="165"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="83">
@@ -6859,12 +7188,12 @@
       </c>
       <c r="C22" s="78"/>
       <c r="D22" s="73"/>
-      <c r="E22" s="155"/>
-      <c r="F22" s="155"/>
-      <c r="G22" s="155"/>
-      <c r="H22" s="155"/>
-      <c r="I22" s="155"/>
-      <c r="J22" s="155"/>
+      <c r="E22" s="165"/>
+      <c r="F22" s="165"/>
+      <c r="G22" s="165"/>
+      <c r="H22" s="165"/>
+      <c r="I22" s="165"/>
+      <c r="J22" s="165"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="84">
@@ -6875,12 +7204,12 @@
       </c>
       <c r="C23" s="78"/>
       <c r="D23" s="73"/>
-      <c r="E23" s="155"/>
-      <c r="F23" s="155"/>
-      <c r="G23" s="155"/>
-      <c r="H23" s="155"/>
-      <c r="I23" s="155"/>
-      <c r="J23" s="155"/>
+      <c r="E23" s="165"/>
+      <c r="F23" s="165"/>
+      <c r="G23" s="165"/>
+      <c r="H23" s="165"/>
+      <c r="I23" s="165"/>
+      <c r="J23" s="165"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="85">
@@ -6891,12 +7220,12 @@
       </c>
       <c r="C24" s="78"/>
       <c r="D24" s="73"/>
-      <c r="E24" s="155"/>
-      <c r="F24" s="155"/>
-      <c r="G24" s="155"/>
-      <c r="H24" s="155"/>
-      <c r="I24" s="155"/>
-      <c r="J24" s="155"/>
+      <c r="E24" s="165"/>
+      <c r="F24" s="165"/>
+      <c r="G24" s="165"/>
+      <c r="H24" s="165"/>
+      <c r="I24" s="165"/>
+      <c r="J24" s="165"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="73">
@@ -6907,12 +7236,12 @@
       </c>
       <c r="C25" s="78"/>
       <c r="D25" s="73"/>
-      <c r="E25" s="155"/>
-      <c r="F25" s="155"/>
-      <c r="G25" s="155"/>
-      <c r="H25" s="155"/>
-      <c r="I25" s="155"/>
-      <c r="J25" s="155"/>
+      <c r="E25" s="165"/>
+      <c r="F25" s="165"/>
+      <c r="G25" s="165"/>
+      <c r="H25" s="165"/>
+      <c r="I25" s="165"/>
+      <c r="J25" s="165"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="76">
@@ -6923,12 +7252,12 @@
       </c>
       <c r="C26" s="78"/>
       <c r="D26" s="73"/>
-      <c r="E26" s="155"/>
-      <c r="F26" s="155"/>
-      <c r="G26" s="155"/>
-      <c r="H26" s="155"/>
-      <c r="I26" s="155"/>
-      <c r="J26" s="155"/>
+      <c r="E26" s="165"/>
+      <c r="F26" s="165"/>
+      <c r="G26" s="165"/>
+      <c r="H26" s="165"/>
+      <c r="I26" s="165"/>
+      <c r="J26" s="165"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="77">
@@ -6939,12 +7268,12 @@
       </c>
       <c r="C27" s="78"/>
       <c r="D27" s="73"/>
-      <c r="E27" s="155"/>
-      <c r="F27" s="155"/>
-      <c r="G27" s="155"/>
-      <c r="H27" s="155"/>
-      <c r="I27" s="155"/>
-      <c r="J27" s="155"/>
+      <c r="E27" s="165"/>
+      <c r="F27" s="165"/>
+      <c r="G27" s="165"/>
+      <c r="H27" s="165"/>
+      <c r="I27" s="165"/>
+      <c r="J27" s="165"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="79">
@@ -6955,12 +7284,12 @@
       </c>
       <c r="C28" s="78"/>
       <c r="D28" s="73"/>
-      <c r="E28" s="155"/>
-      <c r="F28" s="155"/>
-      <c r="G28" s="155"/>
-      <c r="H28" s="155"/>
-      <c r="I28" s="155"/>
-      <c r="J28" s="155"/>
+      <c r="E28" s="165"/>
+      <c r="F28" s="165"/>
+      <c r="G28" s="165"/>
+      <c r="H28" s="165"/>
+      <c r="I28" s="165"/>
+      <c r="J28" s="165"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="80">
@@ -6971,12 +7300,12 @@
       </c>
       <c r="C29" s="78"/>
       <c r="D29" s="73"/>
-      <c r="E29" s="155"/>
-      <c r="F29" s="155"/>
-      <c r="G29" s="155"/>
-      <c r="H29" s="155"/>
-      <c r="I29" s="155"/>
-      <c r="J29" s="155"/>
+      <c r="E29" s="165"/>
+      <c r="F29" s="165"/>
+      <c r="G29" s="165"/>
+      <c r="H29" s="165"/>
+      <c r="I29" s="165"/>
+      <c r="J29" s="165"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="81">
@@ -6987,12 +7316,12 @@
       </c>
       <c r="C30" s="78"/>
       <c r="D30" s="73"/>
-      <c r="E30" s="155"/>
-      <c r="F30" s="155"/>
-      <c r="G30" s="155"/>
-      <c r="H30" s="155"/>
-      <c r="I30" s="155"/>
-      <c r="J30" s="155"/>
+      <c r="E30" s="165"/>
+      <c r="F30" s="165"/>
+      <c r="G30" s="165"/>
+      <c r="H30" s="165"/>
+      <c r="I30" s="165"/>
+      <c r="J30" s="165"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="82">
@@ -7003,12 +7332,12 @@
       </c>
       <c r="C31" s="78"/>
       <c r="D31" s="73"/>
-      <c r="E31" s="155"/>
-      <c r="F31" s="155"/>
-      <c r="G31" s="155"/>
-      <c r="H31" s="155"/>
-      <c r="I31" s="155"/>
-      <c r="J31" s="155"/>
+      <c r="E31" s="165"/>
+      <c r="F31" s="165"/>
+      <c r="G31" s="165"/>
+      <c r="H31" s="165"/>
+      <c r="I31" s="165"/>
+      <c r="J31" s="165"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="83">
@@ -7019,12 +7348,12 @@
       </c>
       <c r="C32" s="78"/>
       <c r="D32" s="73"/>
-      <c r="E32" s="155"/>
-      <c r="F32" s="155"/>
-      <c r="G32" s="155"/>
-      <c r="H32" s="155"/>
-      <c r="I32" s="155"/>
-      <c r="J32" s="155"/>
+      <c r="E32" s="165"/>
+      <c r="F32" s="165"/>
+      <c r="G32" s="165"/>
+      <c r="H32" s="165"/>
+      <c r="I32" s="165"/>
+      <c r="J32" s="165"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="84">
@@ -7035,12 +7364,12 @@
       </c>
       <c r="C33" s="78"/>
       <c r="D33" s="73"/>
-      <c r="E33" s="155"/>
-      <c r="F33" s="155"/>
-      <c r="G33" s="155"/>
-      <c r="H33" s="155"/>
-      <c r="I33" s="155"/>
-      <c r="J33" s="155"/>
+      <c r="E33" s="165"/>
+      <c r="F33" s="165"/>
+      <c r="G33" s="165"/>
+      <c r="H33" s="165"/>
+      <c r="I33" s="165"/>
+      <c r="J33" s="165"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="85">
@@ -7051,12 +7380,12 @@
       </c>
       <c r="C34" s="78"/>
       <c r="D34" s="73"/>
-      <c r="E34" s="155"/>
-      <c r="F34" s="155"/>
-      <c r="G34" s="155"/>
-      <c r="H34" s="155"/>
-      <c r="I34" s="155"/>
-      <c r="J34" s="155"/>
+      <c r="E34" s="165"/>
+      <c r="F34" s="165"/>
+      <c r="G34" s="165"/>
+      <c r="H34" s="165"/>
+      <c r="I34" s="165"/>
+      <c r="J34" s="165"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="73">
@@ -7067,12 +7396,12 @@
       </c>
       <c r="C35" s="78"/>
       <c r="D35" s="73"/>
-      <c r="E35" s="155"/>
-      <c r="F35" s="155"/>
-      <c r="G35" s="155"/>
-      <c r="H35" s="155"/>
-      <c r="I35" s="155"/>
-      <c r="J35" s="155"/>
+      <c r="E35" s="165"/>
+      <c r="F35" s="165"/>
+      <c r="G35" s="165"/>
+      <c r="H35" s="165"/>
+      <c r="I35" s="165"/>
+      <c r="J35" s="165"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="76">
@@ -7083,12 +7412,12 @@
       </c>
       <c r="C36" s="78"/>
       <c r="D36" s="73"/>
-      <c r="E36" s="155"/>
-      <c r="F36" s="155"/>
-      <c r="G36" s="155"/>
-      <c r="H36" s="155"/>
-      <c r="I36" s="155"/>
-      <c r="J36" s="155"/>
+      <c r="E36" s="165"/>
+      <c r="F36" s="165"/>
+      <c r="G36" s="165"/>
+      <c r="H36" s="165"/>
+      <c r="I36" s="165"/>
+      <c r="J36" s="165"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="77">
@@ -7099,12 +7428,12 @@
       </c>
       <c r="C37" s="78"/>
       <c r="D37" s="73"/>
-      <c r="E37" s="155"/>
-      <c r="F37" s="155"/>
-      <c r="G37" s="155"/>
-      <c r="H37" s="155"/>
-      <c r="I37" s="155"/>
-      <c r="J37" s="155"/>
+      <c r="E37" s="165"/>
+      <c r="F37" s="165"/>
+      <c r="G37" s="165"/>
+      <c r="H37" s="165"/>
+      <c r="I37" s="165"/>
+      <c r="J37" s="165"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="79">
@@ -7115,12 +7444,12 @@
       </c>
       <c r="C38" s="78"/>
       <c r="D38" s="73"/>
-      <c r="E38" s="155"/>
-      <c r="F38" s="155"/>
-      <c r="G38" s="155"/>
-      <c r="H38" s="155"/>
-      <c r="I38" s="155"/>
-      <c r="J38" s="155"/>
+      <c r="E38" s="165"/>
+      <c r="F38" s="165"/>
+      <c r="G38" s="165"/>
+      <c r="H38" s="165"/>
+      <c r="I38" s="165"/>
+      <c r="J38" s="165"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="80">
@@ -7131,12 +7460,12 @@
       </c>
       <c r="C39" s="78"/>
       <c r="D39" s="73"/>
-      <c r="E39" s="155"/>
-      <c r="F39" s="155"/>
-      <c r="G39" s="155"/>
-      <c r="H39" s="155"/>
-      <c r="I39" s="155"/>
-      <c r="J39" s="155"/>
+      <c r="E39" s="165"/>
+      <c r="F39" s="165"/>
+      <c r="G39" s="165"/>
+      <c r="H39" s="165"/>
+      <c r="I39" s="165"/>
+      <c r="J39" s="165"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="81">
@@ -7147,12 +7476,12 @@
       </c>
       <c r="C40" s="78"/>
       <c r="D40" s="73"/>
-      <c r="E40" s="155"/>
-      <c r="F40" s="155"/>
-      <c r="G40" s="155"/>
-      <c r="H40" s="155"/>
-      <c r="I40" s="155"/>
-      <c r="J40" s="155"/>
+      <c r="E40" s="165"/>
+      <c r="F40" s="165"/>
+      <c r="G40" s="165"/>
+      <c r="H40" s="165"/>
+      <c r="I40" s="165"/>
+      <c r="J40" s="165"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="82">
@@ -7163,12 +7492,12 @@
       </c>
       <c r="C41" s="78"/>
       <c r="D41" s="73"/>
-      <c r="E41" s="155"/>
-      <c r="F41" s="155"/>
-      <c r="G41" s="155"/>
-      <c r="H41" s="155"/>
-      <c r="I41" s="155"/>
-      <c r="J41" s="155"/>
+      <c r="E41" s="165"/>
+      <c r="F41" s="165"/>
+      <c r="G41" s="165"/>
+      <c r="H41" s="165"/>
+      <c r="I41" s="165"/>
+      <c r="J41" s="165"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="83">
@@ -7179,23 +7508,32 @@
       </c>
       <c r="C42" s="78"/>
       <c r="D42" s="73"/>
-      <c r="E42" s="155"/>
-      <c r="F42" s="155"/>
-      <c r="G42" s="155"/>
-      <c r="H42" s="155"/>
-      <c r="I42" s="155"/>
-      <c r="J42" s="155"/>
+      <c r="E42" s="165"/>
+      <c r="F42" s="165"/>
+      <c r="G42" s="165"/>
+      <c r="H42" s="165"/>
+      <c r="I42" s="165"/>
+      <c r="J42" s="165"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="E39:J39"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="E41:J41"/>
+    <mergeCell ref="E42:J42"/>
+    <mergeCell ref="E37:J37"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="E36:J36"/>
+    <mergeCell ref="E31:J31"/>
+    <mergeCell ref="E32:J32"/>
+    <mergeCell ref="E33:J33"/>
+    <mergeCell ref="E34:J34"/>
+    <mergeCell ref="E35:J35"/>
     <mergeCell ref="E11:J11"/>
     <mergeCell ref="E12:J12"/>
     <mergeCell ref="E25:J25"/>
@@ -7211,29 +7549,20 @@
     <mergeCell ref="E22:J22"/>
     <mergeCell ref="E23:J23"/>
     <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E37:J37"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="E30:J30"/>
-    <mergeCell ref="E36:J36"/>
-    <mergeCell ref="E31:J31"/>
-    <mergeCell ref="E32:J32"/>
-    <mergeCell ref="E33:J33"/>
-    <mergeCell ref="E34:J34"/>
-    <mergeCell ref="E35:J35"/>
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="E39:J39"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="E41:J41"/>
-    <mergeCell ref="E42:J42"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="E6:J6"/>
   </mergeCells>
-  <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"ASOFT - ERP.NET,ASOFT - ACC"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"ASOFT - CS,ASOFT-CRM,ASOFT-SO,ASOFT - PS,ASOFT - BI,ASOFT - S,ASOFT - CI,ASOFT - T,ASOFT - OP,ASOFT - FA,ASOFT - WM,ASOFT - M,ASOFT - OP,ASOFT - HRM,ASOFT - MT"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7249,7 +7578,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="B4:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7422,11 +7751,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7444,10 +7773,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="164" t="s">
+      <c r="A1" s="163" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="164"/>
+      <c r="B1" s="163"/>
       <c r="C1" s="29" t="s">
         <v>1</v>
       </c>
@@ -7460,7 +7789,7 @@
       </c>
       <c r="F1" s="34" t="str">
         <f>'Update History'!F1</f>
-        <v>TMF0020</v>
+        <v>OOF0033</v>
       </c>
       <c r="G1" s="29" t="s">
         <v>5</v>
@@ -7474,14 +7803,14 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="164"/>
-      <c r="B2" s="164"/>
+      <c r="A2" s="163"/>
+      <c r="B2" s="163"/>
       <c r="C2" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="34" t="str">
         <f>'Update History'!D2</f>
-        <v>ASOFT-TM</v>
+        <v>ASOFT-OO</v>
       </c>
       <c r="E2" s="29" t="s">
         <v>4</v>
@@ -7539,7 +7868,7 @@
       <c r="G6" s="37"/>
       <c r="H6" s="38"/>
       <c r="I6" s="102" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -7565,7 +7894,7 @@
       <c r="G8" s="37"/>
       <c r="H8" s="38"/>
       <c r="I8" s="172" t="s">
-        <v>191</v>
+        <v>301</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -7731,7 +8060,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O38"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -7762,13 +8091,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="164" t="s">
+      <c r="A1" s="163" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="164"/>
-      <c r="C1" s="164"/>
-      <c r="D1" s="164"/>
-      <c r="E1" s="164"/>
+      <c r="B1" s="163"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="163"/>
       <c r="F1" s="28" t="s">
         <v>1</v>
       </c>
@@ -7782,7 +8111,7 @@
       <c r="I1" s="175"/>
       <c r="J1" s="176" t="str">
         <f>'Update History'!F1</f>
-        <v>TMF0020</v>
+        <v>OOF0033</v>
       </c>
       <c r="K1" s="177"/>
       <c r="L1" s="29" t="s">
@@ -7798,17 +8127,17 @@
       <c r="O1" s="27"/>
     </row>
     <row r="2" spans="1:15" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="164"/>
-      <c r="B2" s="164"/>
-      <c r="C2" s="164"/>
-      <c r="D2" s="164"/>
-      <c r="E2" s="164"/>
+      <c r="A2" s="163"/>
+      <c r="B2" s="163"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="163"/>
       <c r="F2" s="28" t="s">
         <v>2</v>
       </c>
       <c r="G2" s="26" t="str">
         <f>'Update History'!D2</f>
-        <v>ASOFT-TM</v>
+        <v>ASOFT-OO</v>
       </c>
       <c r="H2" s="174" t="s">
         <v>50</v>
@@ -7890,12 +8219,12 @@
         <v>1</v>
       </c>
       <c r="E5" s="124" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F5" s="133"/>
       <c r="G5" s="133"/>
       <c r="H5" s="133" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="I5" s="134"/>
       <c r="J5" s="135"/>
@@ -7917,19 +8246,19 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="E6" s="120" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F6" s="121" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G6" s="121" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H6" s="121" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="I6" s="122" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="J6" s="123"/>
       <c r="K6" s="122" t="s">
@@ -7954,19 +8283,19 @@
         <v>1.2</v>
       </c>
       <c r="E7" s="120" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F7" s="121" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G7" s="121" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H7" s="121" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="I7" s="122" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="J7" s="123"/>
       <c r="K7" s="122" t="s">
@@ -7988,22 +8317,22 @@
       </c>
       <c r="C8" s="119"/>
       <c r="D8" s="120" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E8" s="120" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F8" s="121" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G8" s="121" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H8" s="121" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="I8" s="122" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="J8" s="123"/>
       <c r="K8" s="122" t="s">
@@ -8023,22 +8352,22 @@
       </c>
       <c r="C9" s="119"/>
       <c r="D9" s="120" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E9" s="120" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F9" s="121" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G9" s="121" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H9" s="121" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="I9" s="122" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="J9" s="123"/>
       <c r="K9" s="122" t="s">
@@ -8058,22 +8387,22 @@
       </c>
       <c r="C10" s="119"/>
       <c r="D10" s="120" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E10" s="120" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F10" s="121" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G10" s="121" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H10" s="121" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="I10" s="122" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="J10" s="123"/>
       <c r="K10" s="122" t="s">
@@ -8093,22 +8422,22 @@
       </c>
       <c r="C11" s="119"/>
       <c r="D11" s="120" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E11" s="120" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F11" s="121" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G11" s="121" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H11" s="121" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="I11" s="122" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="J11" s="123"/>
       <c r="K11" s="122" t="s">
@@ -8128,22 +8457,22 @@
       </c>
       <c r="C12" s="119"/>
       <c r="D12" s="120" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E12" s="120" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F12" s="121" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G12" s="121" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="H12" s="121" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="I12" s="122" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="J12" s="123"/>
       <c r="K12" s="122" t="s">
@@ -8163,22 +8492,22 @@
       </c>
       <c r="C13" s="119"/>
       <c r="D13" s="120" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E13" s="120" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F13" s="121" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G13" s="121" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="H13" s="121" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="I13" s="122" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="J13" s="123"/>
       <c r="K13" s="122" t="s">
@@ -8198,22 +8527,22 @@
       </c>
       <c r="C14" s="119"/>
       <c r="D14" s="120" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E14" s="120" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F14" s="121" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G14" s="121" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="H14" s="121" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="I14" s="122" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="J14" s="123"/>
       <c r="K14" s="122" t="s">
@@ -8236,19 +8565,19 @@
         <v>1.3</v>
       </c>
       <c r="E15" s="120" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F15" s="121" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G15" s="121" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H15" s="121" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="I15" s="122" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="J15" s="123"/>
       <c r="K15" s="122" t="s">
@@ -8270,22 +8599,22 @@
       </c>
       <c r="C16" s="119"/>
       <c r="D16" s="120" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E16" s="120" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F16" s="121" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G16" s="121" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H16" s="121" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="I16" s="122" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="J16" s="123"/>
       <c r="K16" s="122" t="s">
@@ -8307,19 +8636,19 @@
       </c>
       <c r="C17" s="119"/>
       <c r="D17" s="120" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E17" s="120" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F17" s="121" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G17" s="121" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H17" s="121" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="I17" s="122" t="s">
         <v>169</v>
@@ -8342,22 +8671,22 @@
       </c>
       <c r="C18" s="119"/>
       <c r="D18" s="120" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E18" s="120" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F18" s="121" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G18" s="121" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H18" s="121" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="I18" s="122" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="J18" s="123"/>
       <c r="K18" s="122" t="s">
@@ -8379,16 +8708,16 @@
       </c>
       <c r="C19" s="119"/>
       <c r="D19" s="120" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E19" s="120" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F19" s="121" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G19" s="121" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H19" s="121" t="s">
         <v>168</v>
@@ -8414,16 +8743,16 @@
       </c>
       <c r="C20" s="119"/>
       <c r="D20" s="120" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E20" s="120" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F20" s="121" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G20" s="121" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="H20" s="121" t="s">
         <v>168</v>
@@ -8452,19 +8781,19 @@
         <v>1.4</v>
       </c>
       <c r="E21" s="120" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F21" s="121" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G21" s="121" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H21" s="137" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="I21" s="122" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="J21" s="123"/>
       <c r="K21" s="122" t="s">
@@ -8486,22 +8815,22 @@
       </c>
       <c r="C22" s="119"/>
       <c r="D22" s="120" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E22" s="120" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F22" s="121" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G22" s="121" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H22" s="137" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="I22" s="122" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="J22" s="123"/>
       <c r="K22" s="122" t="s">
@@ -8523,16 +8852,16 @@
       </c>
       <c r="C23" s="119"/>
       <c r="D23" s="120" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E23" s="120" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F23" s="121" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G23" s="121" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="H23" s="137" t="s">
         <v>168</v>
@@ -8558,16 +8887,16 @@
       </c>
       <c r="C24" s="119"/>
       <c r="D24" s="120" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E24" s="120" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F24" s="121" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G24" s="121" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="H24" s="137" t="s">
         <v>168</v>
@@ -8593,22 +8922,22 @@
       </c>
       <c r="C25" s="119"/>
       <c r="D25" s="120" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E25" s="120" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F25" s="121" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G25" s="121" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H25" s="137" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="I25" s="122" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="J25" s="123"/>
       <c r="K25" s="122" t="s">
@@ -8630,16 +8959,16 @@
       </c>
       <c r="C26" s="119"/>
       <c r="D26" s="120" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E26" s="120" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F26" s="121" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G26" s="121" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H26" s="137" t="s">
         <v>168</v>
@@ -8665,16 +8994,16 @@
       </c>
       <c r="C27" s="119"/>
       <c r="D27" s="120" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E27" s="120" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F27" s="121" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G27" s="121" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="H27" s="137" t="s">
         <v>168</v>
@@ -8700,16 +9029,16 @@
       </c>
       <c r="C28" s="119"/>
       <c r="D28" s="120" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E28" s="120" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F28" s="121" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G28" s="121" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="H28" s="137" t="s">
         <v>168</v>
@@ -8738,26 +9067,26 @@
         <v>1.5</v>
       </c>
       <c r="E29" s="120" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="F29" s="121" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="G29" s="121" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="H29" s="137" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="I29" s="122" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="J29" s="123"/>
       <c r="K29" s="122" t="s">
         <v>144</v>
       </c>
       <c r="L29" s="121" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="M29" s="121"/>
       <c r="N29" s="121"/>
@@ -8775,26 +9104,26 @@
         <v>1.6</v>
       </c>
       <c r="E30" s="120" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="F30" s="121" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="G30" s="121" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="H30" s="137" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="I30" s="122" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="J30" s="123"/>
       <c r="K30" s="122" t="s">
         <v>144</v>
       </c>
       <c r="L30" s="121" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="M30" s="121"/>
       <c r="N30" s="121"/>
@@ -8812,12 +9141,12 @@
         <v>2</v>
       </c>
       <c r="E31" s="124" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F31" s="133"/>
       <c r="G31" s="133"/>
       <c r="H31" s="133" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="I31" s="134"/>
       <c r="J31" s="135"/>
@@ -8839,26 +9168,26 @@
         <v>2.1</v>
       </c>
       <c r="E32" s="120" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F32" s="121" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G32" s="121" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="H32" s="121" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="I32" s="122" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="J32" s="123"/>
       <c r="K32" s="122" t="s">
         <v>144</v>
       </c>
       <c r="L32" s="121" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="M32" s="121"/>
       <c r="N32" s="121"/>
@@ -8876,19 +9205,19 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="E33" s="120" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F33" s="121" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G33" s="121" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H33" s="121" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="I33" s="122" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="J33" s="123"/>
       <c r="K33" s="122" t="s">
@@ -8913,26 +9242,26 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="E34" s="120" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F34" s="127" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G34" s="127" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H34" s="127" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="I34" s="128" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="J34" s="129"/>
       <c r="K34" s="122" t="s">
         <v>144</v>
       </c>
       <c r="L34" s="121" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="M34" s="127"/>
       <c r="N34" s="127"/>
@@ -8950,14 +9279,14 @@
         <v>3</v>
       </c>
       <c r="E35" s="130" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F35" s="121" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G35" s="121"/>
       <c r="H35" s="121" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="I35" s="122"/>
       <c r="J35" s="123"/>
@@ -8979,14 +9308,14 @@
         <v>4</v>
       </c>
       <c r="E36" s="120" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F36" s="121" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G36" s="121"/>
       <c r="H36" s="121" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="I36" s="122"/>
       <c r="J36" s="123"/>
@@ -9011,11 +9340,11 @@
         <v>167</v>
       </c>
       <c r="F37" s="121" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G37" s="121"/>
       <c r="H37" s="121" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="I37" s="122"/>
       <c r="J37" s="123"/>
@@ -9044,20 +9373,20 @@
     <mergeCell ref="J2:K2"/>
   </mergeCells>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I37">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I37" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Text, Number, DateTime, Boolean"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="G5"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K5:K37">
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="G5" xr:uid="{00000000-0002-0000-0200-000001000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K5:K37" xr:uid="{00000000-0002-0000-0200-000002000000}">
       <formula1>"I,O,I/O"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6:H16 H32:H37 H18:H30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6:H16 H32:H37 H18:H30" xr:uid="{00000000-0002-0000-0200-000003000000}">
       <formula1>"Caption,Textbox,DateTimePicker,RichTextbox,Label,ComboBox,CheckBox,RadioButton,Button,DataGrid, Image,Link,Form,Frame,Menu,MenuItem,Combo Column,Grid Column,Data Column,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H17" xr:uid="{00000000-0002-0000-0200-000004000000}">
       <formula1>"Caption,Dropdownchecklist,Textbox,DateTimePicker,RichTextbox,Label,ComboBox,CheckBox,RadioButton,Button,DataGrid, Image,Link,Form,Frame,Menu,MenuItem,Combo Column,Grid Column,Data Column,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5 H31">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5 H31" xr:uid="{00000000-0002-0000-0200-000005000000}">
       <formula1>"Caption,Tab,Textbox,DateTimePicker,RichTextbox,Label,ComboBox,CheckBox,RadioButton,Button,DataGrid, Image,Link,Form,Frame,Menu,MenuItem,Combo Column,Grid Column,Data Column,Other"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9068,7 +9397,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -9112,7 +9441,7 @@
       </c>
       <c r="F1" s="60" t="str">
         <f>'Update History'!F1</f>
-        <v>TMF0020</v>
+        <v>OOF0033</v>
       </c>
       <c r="G1" s="28" t="s">
         <v>5</v>
@@ -9135,7 +9464,7 @@
       <c r="C2" s="180"/>
       <c r="D2" s="60" t="str">
         <f>'Update History'!D2</f>
-        <v>ASOFT-TM</v>
+        <v>ASOFT-OO</v>
       </c>
       <c r="E2" s="28" t="s">
         <v>50</v>
@@ -9583,10 +9912,10 @@
     <mergeCell ref="A2:C2"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K16:L21 I5:I28">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K16:L21 I5:I28" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"Click,Double Click,Change,Selected,KeyDown,KeyPress,Hover,Focus,LostFocus"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E28">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E28" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>"Format,Require,Max Length,Range,Not In List"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9602,7 +9931,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:S24"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -9632,7 +9961,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="183" t="s">
+      <c r="A1" s="188" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="104"/>
@@ -9649,7 +9978,7 @@
       </c>
       <c r="G1" s="57" t="str">
         <f>'Update History'!F1</f>
-        <v>TMF0020</v>
+        <v>OOF0033</v>
       </c>
       <c r="H1" s="58" t="s">
         <v>5</v>
@@ -9666,7 +9995,7 @@
       <c r="M1" s="44"/>
     </row>
     <row r="2" spans="1:13" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="184"/>
+      <c r="A2" s="189"/>
       <c r="B2" s="105"/>
       <c r="C2" s="105"/>
       <c r="D2" s="29" t="s">
@@ -9674,7 +10003,7 @@
       </c>
       <c r="E2" s="60" t="str">
         <f>'Update History'!D2</f>
-        <v>ASOFT-TM</v>
+        <v>ASOFT-OO</v>
       </c>
       <c r="F2" s="58" t="s">
         <v>50</v>
@@ -9716,15 +10045,15 @@
       <c r="F4" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="G4" s="164" t="s">
+      <c r="G4" s="163" t="s">
         <v>125</v>
       </c>
-      <c r="H4" s="164"/>
-      <c r="I4" s="164" t="s">
+      <c r="H4" s="163"/>
+      <c r="I4" s="163" t="s">
         <v>49</v>
       </c>
-      <c r="J4" s="164"/>
-      <c r="K4" s="164"/>
+      <c r="J4" s="163"/>
+      <c r="K4" s="163"/>
     </row>
     <row r="5" spans="1:13" s="32" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A5" s="31">
@@ -9735,8 +10064,8 @@
       <c r="D5" s="31"/>
       <c r="E5" s="31"/>
       <c r="F5" s="30"/>
-      <c r="G5" s="181"/>
-      <c r="H5" s="182"/>
+      <c r="G5" s="183"/>
+      <c r="H5" s="184"/>
       <c r="I5" s="185"/>
       <c r="J5" s="186"/>
       <c r="K5" s="187"/>
@@ -9750,8 +10079,8 @@
       <c r="D6" s="31"/>
       <c r="E6" s="31"/>
       <c r="F6" s="30"/>
-      <c r="G6" s="181"/>
-      <c r="H6" s="182"/>
+      <c r="G6" s="183"/>
+      <c r="H6" s="184"/>
       <c r="I6" s="185"/>
       <c r="J6" s="186"/>
       <c r="K6" s="187"/>
@@ -9765,8 +10094,8 @@
       <c r="D7" s="31"/>
       <c r="E7" s="31"/>
       <c r="F7" s="30"/>
-      <c r="G7" s="181"/>
-      <c r="H7" s="182"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="184"/>
       <c r="I7" s="185"/>
       <c r="J7" s="186"/>
       <c r="K7" s="187"/>
@@ -9780,8 +10109,8 @@
       <c r="D8" s="31"/>
       <c r="E8" s="31"/>
       <c r="F8" s="30"/>
-      <c r="G8" s="181"/>
-      <c r="H8" s="182"/>
+      <c r="G8" s="183"/>
+      <c r="H8" s="184"/>
       <c r="I8" s="185"/>
       <c r="J8" s="186"/>
       <c r="K8" s="187"/>
@@ -9795,8 +10124,8 @@
       <c r="D9" s="31"/>
       <c r="E9" s="31"/>
       <c r="F9" s="30"/>
-      <c r="G9" s="181"/>
-      <c r="H9" s="182"/>
+      <c r="G9" s="183"/>
+      <c r="H9" s="184"/>
       <c r="I9" s="185"/>
       <c r="J9" s="186"/>
       <c r="K9" s="187"/>
@@ -9810,8 +10139,8 @@
       <c r="D10" s="31"/>
       <c r="E10" s="31"/>
       <c r="F10" s="30"/>
-      <c r="G10" s="181"/>
-      <c r="H10" s="182"/>
+      <c r="G10" s="183"/>
+      <c r="H10" s="184"/>
       <c r="I10" s="185"/>
       <c r="J10" s="186"/>
       <c r="K10" s="187"/>
@@ -9825,8 +10154,8 @@
       <c r="D11" s="31"/>
       <c r="E11" s="31"/>
       <c r="F11" s="30"/>
-      <c r="G11" s="181"/>
-      <c r="H11" s="182"/>
+      <c r="G11" s="183"/>
+      <c r="H11" s="184"/>
       <c r="I11" s="185"/>
       <c r="J11" s="186"/>
       <c r="K11" s="187"/>
@@ -9840,8 +10169,8 @@
       <c r="D12" s="31"/>
       <c r="E12" s="31"/>
       <c r="F12" s="30"/>
-      <c r="G12" s="181"/>
-      <c r="H12" s="182"/>
+      <c r="G12" s="183"/>
+      <c r="H12" s="184"/>
       <c r="I12" s="185"/>
       <c r="J12" s="186"/>
       <c r="K12" s="187"/>
@@ -9855,8 +10184,8 @@
       <c r="D13" s="31"/>
       <c r="E13" s="31"/>
       <c r="F13" s="30"/>
-      <c r="G13" s="181"/>
-      <c r="H13" s="182"/>
+      <c r="G13" s="183"/>
+      <c r="H13" s="184"/>
       <c r="I13" s="185"/>
       <c r="J13" s="186"/>
       <c r="K13" s="187"/>
@@ -9870,8 +10199,8 @@
       <c r="D14" s="31"/>
       <c r="E14" s="31"/>
       <c r="F14" s="30"/>
-      <c r="G14" s="181"/>
-      <c r="H14" s="182"/>
+      <c r="G14" s="183"/>
+      <c r="H14" s="184"/>
       <c r="I14" s="185"/>
       <c r="J14" s="186"/>
       <c r="K14" s="187"/>
@@ -9885,8 +10214,8 @@
       <c r="D15" s="31"/>
       <c r="E15" s="31"/>
       <c r="F15" s="30"/>
-      <c r="G15" s="181"/>
-      <c r="H15" s="182"/>
+      <c r="G15" s="183"/>
+      <c r="H15" s="184"/>
       <c r="I15" s="185"/>
       <c r="J15" s="186"/>
       <c r="K15" s="187"/>
@@ -9900,8 +10229,8 @@
       <c r="D16" s="31"/>
       <c r="E16" s="31"/>
       <c r="F16" s="30"/>
-      <c r="G16" s="181"/>
-      <c r="H16" s="182"/>
+      <c r="G16" s="183"/>
+      <c r="H16" s="184"/>
       <c r="I16" s="185"/>
       <c r="J16" s="186"/>
       <c r="K16" s="187"/>
@@ -9915,8 +10244,8 @@
       <c r="D17" s="31"/>
       <c r="E17" s="31"/>
       <c r="F17" s="30"/>
-      <c r="G17" s="181"/>
-      <c r="H17" s="182"/>
+      <c r="G17" s="183"/>
+      <c r="H17" s="184"/>
       <c r="I17" s="185"/>
       <c r="J17" s="186"/>
       <c r="K17" s="187"/>
@@ -9930,8 +10259,8 @@
       <c r="D18" s="31"/>
       <c r="E18" s="31"/>
       <c r="F18" s="30"/>
-      <c r="G18" s="181"/>
-      <c r="H18" s="182"/>
+      <c r="G18" s="183"/>
+      <c r="H18" s="184"/>
       <c r="I18" s="185"/>
       <c r="J18" s="186"/>
       <c r="K18" s="187"/>
@@ -9945,8 +10274,8 @@
       <c r="D19" s="31"/>
       <c r="E19" s="31"/>
       <c r="F19" s="30"/>
-      <c r="G19" s="181"/>
-      <c r="H19" s="182"/>
+      <c r="G19" s="183"/>
+      <c r="H19" s="184"/>
       <c r="I19" s="185"/>
       <c r="J19" s="186"/>
       <c r="K19" s="187"/>
@@ -9960,8 +10289,8 @@
       <c r="D20" s="31"/>
       <c r="E20" s="31"/>
       <c r="F20" s="30"/>
-      <c r="G20" s="181"/>
-      <c r="H20" s="182"/>
+      <c r="G20" s="183"/>
+      <c r="H20" s="184"/>
       <c r="I20" s="185"/>
       <c r="J20" s="186"/>
       <c r="K20" s="187"/>
@@ -9975,8 +10304,8 @@
       <c r="D21" s="31"/>
       <c r="E21" s="31"/>
       <c r="F21" s="30"/>
-      <c r="G21" s="181"/>
-      <c r="H21" s="182"/>
+      <c r="G21" s="183"/>
+      <c r="H21" s="184"/>
       <c r="I21" s="185"/>
       <c r="J21" s="186"/>
       <c r="K21" s="187"/>
@@ -9990,8 +10319,8 @@
       <c r="D22" s="31"/>
       <c r="E22" s="31"/>
       <c r="F22" s="30"/>
-      <c r="G22" s="188"/>
-      <c r="H22" s="189"/>
+      <c r="G22" s="181"/>
+      <c r="H22" s="182"/>
       <c r="I22" s="185"/>
       <c r="J22" s="186"/>
       <c r="K22" s="187"/>
@@ -10005,8 +10334,8 @@
       <c r="D23" s="31"/>
       <c r="E23" s="31"/>
       <c r="F23" s="30"/>
-      <c r="G23" s="188"/>
-      <c r="H23" s="189"/>
+      <c r="G23" s="181"/>
+      <c r="H23" s="182"/>
       <c r="I23" s="185"/>
       <c r="J23" s="186"/>
       <c r="K23" s="187"/>
@@ -10020,8 +10349,8 @@
       <c r="D24" s="31"/>
       <c r="E24" s="31"/>
       <c r="F24" s="30"/>
-      <c r="G24" s="188"/>
-      <c r="H24" s="189"/>
+      <c r="G24" s="181"/>
+      <c r="H24" s="182"/>
       <c r="I24" s="185"/>
       <c r="J24" s="186"/>
       <c r="K24" s="187"/>
@@ -10029,26 +10358,13 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="43">
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="I4:K4"/>
     <mergeCell ref="I18:K18"/>
     <mergeCell ref="I19:K19"/>
     <mergeCell ref="G12:H12"/>
@@ -10065,16 +10381,29 @@
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="I13:K13"/>
     <mergeCell ref="I14:K14"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F24" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>"Text,Number,Boolean,Datatime,Object,Structure"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10090,11 +10419,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:U1048368"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="86" zoomScaleSheetLayoutView="86" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10124,30 +10453,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="164" t="s">
+      <c r="A1" s="163" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="164"/>
-      <c r="C1" s="164"/>
-      <c r="D1" s="164"/>
-      <c r="E1" s="164"/>
-      <c r="F1" s="164"/>
-      <c r="G1" s="164"/>
-      <c r="H1" s="164"/>
+      <c r="B1" s="163"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="163"/>
+      <c r="F1" s="163"/>
+      <c r="G1" s="163"/>
+      <c r="H1" s="163"/>
       <c r="I1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="199" t="str">
+      <c r="J1" s="200" t="str">
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="K1" s="199"/>
+      <c r="K1" s="200"/>
       <c r="L1" s="59" t="s">
         <v>3</v>
       </c>
       <c r="M1" s="92" t="str">
         <f>'Update History'!F1</f>
-        <v>TMF0020</v>
+        <v>OOF0033</v>
       </c>
       <c r="N1" s="59" t="s">
         <v>5</v>
@@ -10164,22 +10493,22 @@
       <c r="S1" s="33"/>
     </row>
     <row r="2" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="164"/>
-      <c r="B2" s="164"/>
-      <c r="C2" s="164"/>
-      <c r="D2" s="164"/>
-      <c r="E2" s="164"/>
-      <c r="F2" s="164"/>
-      <c r="G2" s="164"/>
-      <c r="H2" s="164"/>
+      <c r="A2" s="163"/>
+      <c r="B2" s="163"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="163"/>
+      <c r="F2" s="163"/>
+      <c r="G2" s="163"/>
+      <c r="H2" s="163"/>
       <c r="I2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="199" t="str">
+      <c r="J2" s="200" t="str">
         <f>'Update History'!D2</f>
-        <v>ASOFT-TM</v>
-      </c>
-      <c r="K2" s="199"/>
+        <v>ASOFT-OO</v>
+      </c>
+      <c r="K2" s="200"/>
       <c r="L2" s="59" t="s">
         <v>50</v>
       </c>
@@ -10254,7 +10583,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="152" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" s="152" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="144">
         <v>1</v>
       </c>
@@ -10266,7 +10595,7 @@
       <c r="E5" s="144"/>
       <c r="F5" s="144"/>
       <c r="G5" s="146" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="H5" s="147" t="s">
         <v>173</v>
@@ -10277,23 +10606,23 @@
       <c r="J5" s="148" t="s">
         <v>175</v>
       </c>
-      <c r="K5" s="193" t="s">
-        <v>306</v>
-      </c>
-      <c r="L5" s="194"/>
-      <c r="M5" s="194"/>
-      <c r="N5" s="195"/>
+      <c r="K5" s="190" t="s">
+        <v>304</v>
+      </c>
+      <c r="L5" s="191"/>
+      <c r="M5" s="191"/>
+      <c r="N5" s="192"/>
       <c r="O5" s="149" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="P5" s="149" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="Q5" s="147" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="R5" s="150" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="S5" s="146"/>
       <c r="T5" s="151"/>
@@ -10311,7 +10640,7 @@
       <c r="E6" s="144"/>
       <c r="F6" s="144"/>
       <c r="G6" s="146" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="H6" s="147" t="s">
         <v>173</v>
@@ -10322,26 +10651,26 @@
       <c r="J6" s="148" t="s">
         <v>176</v>
       </c>
-      <c r="K6" s="196" t="s">
-        <v>307</v>
-      </c>
-      <c r="L6" s="197"/>
-      <c r="M6" s="197"/>
-      <c r="N6" s="198"/>
+      <c r="K6" s="199" t="s">
+        <v>305</v>
+      </c>
+      <c r="L6" s="194"/>
+      <c r="M6" s="194"/>
+      <c r="N6" s="195"/>
       <c r="O6" s="149" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="P6" s="149" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="Q6" s="147" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="R6" s="147" t="s">
-        <v>299</v>
-      </c>
-      <c r="S6" s="190" t="s">
-        <v>269</v>
+        <v>294</v>
+      </c>
+      <c r="S6" s="196" t="s">
+        <v>310</v>
       </c>
       <c r="T6" s="151"/>
       <c r="U6" s="151"/>
@@ -10358,7 +10687,7 @@
       <c r="E7" s="144"/>
       <c r="F7" s="144"/>
       <c r="G7" s="146" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="H7" s="147" t="s">
         <v>173</v>
@@ -10369,25 +10698,25 @@
       <c r="J7" s="148" t="s">
         <v>177</v>
       </c>
-      <c r="K7" s="196" t="s">
-        <v>308</v>
-      </c>
-      <c r="L7" s="197"/>
-      <c r="M7" s="197"/>
-      <c r="N7" s="198"/>
+      <c r="K7" s="199" t="s">
+        <v>306</v>
+      </c>
+      <c r="L7" s="194"/>
+      <c r="M7" s="194"/>
+      <c r="N7" s="195"/>
       <c r="O7" s="149" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="P7" s="149" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="Q7" s="147" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="R7" s="147" t="s">
-        <v>299</v>
-      </c>
-      <c r="S7" s="191"/>
+        <v>294</v>
+      </c>
+      <c r="S7" s="197"/>
       <c r="T7" s="151"/>
       <c r="U7" s="151"/>
     </row>
@@ -10403,7 +10732,7 @@
       <c r="E8" s="144"/>
       <c r="F8" s="145"/>
       <c r="G8" s="146" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="H8" s="147" t="s">
         <v>185</v>
@@ -10414,25 +10743,25 @@
       <c r="J8" s="148" t="s">
         <v>178</v>
       </c>
-      <c r="K8" s="196" t="s">
-        <v>309</v>
-      </c>
-      <c r="L8" s="197"/>
-      <c r="M8" s="197"/>
-      <c r="N8" s="198"/>
+      <c r="K8" s="199" t="s">
+        <v>307</v>
+      </c>
+      <c r="L8" s="194"/>
+      <c r="M8" s="194"/>
+      <c r="N8" s="195"/>
       <c r="O8" s="149" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="P8" s="149" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="Q8" s="147" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="R8" s="147" t="s">
-        <v>299</v>
-      </c>
-      <c r="S8" s="191"/>
+        <v>294</v>
+      </c>
+      <c r="S8" s="197"/>
       <c r="T8" s="151"/>
       <c r="U8" s="151"/>
     </row>
@@ -10448,7 +10777,7 @@
       <c r="E9" s="144"/>
       <c r="F9" s="145"/>
       <c r="G9" s="146" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="H9" s="147" t="s">
         <v>174</v>
@@ -10459,25 +10788,25 @@
       <c r="J9" s="148" t="s">
         <v>179</v>
       </c>
-      <c r="K9" s="200" t="s">
-        <v>310</v>
-      </c>
-      <c r="L9" s="197"/>
-      <c r="M9" s="197"/>
-      <c r="N9" s="198"/>
+      <c r="K9" s="193" t="s">
+        <v>308</v>
+      </c>
+      <c r="L9" s="194"/>
+      <c r="M9" s="194"/>
+      <c r="N9" s="195"/>
       <c r="O9" s="149" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="P9" s="149" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="Q9" s="147" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="R9" s="147" t="s">
-        <v>299</v>
-      </c>
-      <c r="S9" s="191"/>
+        <v>294</v>
+      </c>
+      <c r="S9" s="197"/>
       <c r="T9" s="151"/>
       <c r="U9" s="151"/>
     </row>
@@ -10493,10 +10822,10 @@
       <c r="E10" s="144"/>
       <c r="F10" s="145"/>
       <c r="G10" s="146" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="H10" s="147" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="I10" s="147" t="s">
         <v>56</v>
@@ -10504,25 +10833,25 @@
       <c r="J10" s="148" t="s">
         <v>180</v>
       </c>
-      <c r="K10" s="200" t="s">
-        <v>311</v>
-      </c>
-      <c r="L10" s="197"/>
-      <c r="M10" s="197"/>
-      <c r="N10" s="198"/>
+      <c r="K10" s="193" t="s">
+        <v>309</v>
+      </c>
+      <c r="L10" s="194"/>
+      <c r="M10" s="194"/>
+      <c r="N10" s="195"/>
       <c r="O10" s="149" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="P10" s="149" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="Q10" s="147" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="R10" s="147" t="s">
-        <v>299</v>
-      </c>
-      <c r="S10" s="192"/>
+        <v>294</v>
+      </c>
+      <c r="S10" s="198"/>
       <c r="T10" s="151"/>
       <c r="U10" s="151"/>
     </row>
@@ -10538,7 +10867,7 @@
       <c r="E11" s="144"/>
       <c r="F11" s="145"/>
       <c r="G11" s="146" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="H11" s="147" t="s">
         <v>173</v>
@@ -10549,26 +10878,26 @@
       <c r="J11" s="148" t="s">
         <v>181</v>
       </c>
-      <c r="K11" s="193" t="s">
-        <v>289</v>
-      </c>
-      <c r="L11" s="194"/>
-      <c r="M11" s="194"/>
-      <c r="N11" s="195"/>
+      <c r="K11" s="190" t="s">
+        <v>284</v>
+      </c>
+      <c r="L11" s="191"/>
+      <c r="M11" s="191"/>
+      <c r="N11" s="192"/>
       <c r="O11" s="149" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="P11" s="149" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q11" s="150" t="s">
         <v>291</v>
       </c>
-      <c r="Q11" s="150" t="s">
-        <v>296</v>
-      </c>
       <c r="R11" s="150" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="S11" s="146" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="T11" s="151"/>
       <c r="U11" s="151"/>
@@ -10585,7 +10914,7 @@
       <c r="E12" s="144"/>
       <c r="F12" s="145"/>
       <c r="G12" s="146" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="H12" s="147" t="s">
         <v>173</v>
@@ -10596,26 +10925,26 @@
       <c r="J12" s="148" t="s">
         <v>182</v>
       </c>
-      <c r="K12" s="193" t="s">
-        <v>289</v>
-      </c>
-      <c r="L12" s="194"/>
-      <c r="M12" s="194"/>
-      <c r="N12" s="195"/>
+      <c r="K12" s="190" t="s">
+        <v>284</v>
+      </c>
+      <c r="L12" s="191"/>
+      <c r="M12" s="191"/>
+      <c r="N12" s="192"/>
       <c r="O12" s="149" t="s">
+        <v>285</v>
+      </c>
+      <c r="P12" s="149" t="s">
         <v>290</v>
       </c>
-      <c r="P12" s="149" t="s">
-        <v>295</v>
-      </c>
       <c r="Q12" s="150" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="R12" s="150" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="S12" s="146" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="T12" s="151"/>
       <c r="U12" s="151"/>
@@ -10632,7 +10961,7 @@
       <c r="E13" s="144"/>
       <c r="F13" s="145"/>
       <c r="G13" s="146" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="H13" s="147" t="s">
         <v>173</v>
@@ -10643,26 +10972,26 @@
       <c r="J13" s="148" t="s">
         <v>183</v>
       </c>
-      <c r="K13" s="193" t="s">
-        <v>289</v>
-      </c>
-      <c r="L13" s="194"/>
-      <c r="M13" s="194"/>
-      <c r="N13" s="195"/>
+      <c r="K13" s="190" t="s">
+        <v>284</v>
+      </c>
+      <c r="L13" s="191"/>
+      <c r="M13" s="191"/>
+      <c r="N13" s="192"/>
       <c r="O13" s="149" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="P13" s="149" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q13" s="150" t="s">
+        <v>292</v>
+      </c>
+      <c r="R13" s="150" t="s">
         <v>293</v>
       </c>
-      <c r="Q13" s="150" t="s">
-        <v>297</v>
-      </c>
-      <c r="R13" s="150" t="s">
-        <v>298</v>
-      </c>
       <c r="S13" s="146" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="T13" s="151"/>
       <c r="U13" s="151"/>
@@ -10679,7 +11008,7 @@
       <c r="E14" s="144"/>
       <c r="F14" s="145"/>
       <c r="G14" s="146" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="H14" s="147" t="s">
         <v>173</v>
@@ -10690,26 +11019,26 @@
       <c r="J14" s="148" t="s">
         <v>184</v>
       </c>
-      <c r="K14" s="193" t="s">
-        <v>289</v>
-      </c>
-      <c r="L14" s="194"/>
-      <c r="M14" s="194"/>
-      <c r="N14" s="195"/>
+      <c r="K14" s="190" t="s">
+        <v>284</v>
+      </c>
+      <c r="L14" s="191"/>
+      <c r="M14" s="191"/>
+      <c r="N14" s="192"/>
       <c r="O14" s="149" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="P14" s="149" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q14" s="150" t="s">
         <v>292</v>
       </c>
-      <c r="Q14" s="150" t="s">
-        <v>297</v>
-      </c>
       <c r="R14" s="150" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="S14" s="146" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="T14" s="151"/>
       <c r="U14" s="151"/>
@@ -10768,11 +11097,6 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="15">
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="K9:N9"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="K12:N12"/>
     <mergeCell ref="S6:S10"/>
     <mergeCell ref="K5:N5"/>
     <mergeCell ref="K6:N6"/>
@@ -10783,16 +11107,21 @@
     <mergeCell ref="K4:N4"/>
     <mergeCell ref="K7:N7"/>
     <mergeCell ref="K8:N8"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="K12:N12"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="Q1048368:Q1048576 Q5:Q14"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H14">
+    <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="Q1048368:Q1048576 Q5:Q14" xr:uid="{00000000-0002-0000-0500-000000000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H14" xr:uid="{00000000-0002-0000-0500-000001000000}">
       <formula1>"Select,Insert,Update,Delete"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I14" xr:uid="{00000000-0002-0000-0500-000002000000}">
       <formula1>"SQL Script, ID SQL, ID Store, ID Function, ID Trigger"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R5:R14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R5:R14" xr:uid="{00000000-0002-0000-0500-000003000000}">
       <formula1>"Load,Click,Double Click,Change,Selected,KeyDown,KeyPress,Hover,Focus,LostFocus"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10808,7 +11137,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:L125"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -10828,10 +11157,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="164" t="s">
+      <c r="A1" s="163" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="164"/>
+      <c r="B1" s="163"/>
       <c r="C1" s="29" t="s">
         <v>1</v>
       </c>
@@ -10844,7 +11173,7 @@
       </c>
       <c r="F1" s="34" t="str">
         <f>'Update History'!F1</f>
-        <v>TMF0020</v>
+        <v>OOF0033</v>
       </c>
       <c r="G1" s="29" t="s">
         <v>5</v>
@@ -10859,14 +11188,14 @@
       <c r="J1" s="35"/>
     </row>
     <row r="2" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="164"/>
-      <c r="B2" s="164"/>
+      <c r="A2" s="163"/>
+      <c r="B2" s="163"/>
       <c r="C2" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="34" t="str">
         <f>'Update History'!D2</f>
-        <v>ASOFT-TM</v>
+        <v>ASOFT-OO</v>
       </c>
       <c r="E2" s="29" t="s">
         <v>4</v>
@@ -11089,7 +11418,7 @@
     <row r="18" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="37"/>
       <c r="C18" s="37" t="s">
-        <v>272</v>
+        <v>302</v>
       </c>
       <c r="D18" s="37"/>
       <c r="E18" s="37"/>
@@ -11750,7 +12079,7 @@
       <c r="A65" s="52"/>
       <c r="B65" s="37"/>
       <c r="C65" s="37" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="D65" s="37"/>
       <c r="E65" s="37"/>
@@ -11909,7 +12238,7 @@
     </row>
     <row r="76" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="52" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B76" s="37"/>
       <c r="C76" s="54"/>
@@ -12012,7 +12341,7 @@
     </row>
     <row r="83" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="52" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B83" s="37"/>
       <c r="C83" s="54"/>
@@ -12044,7 +12373,7 @@
     <row r="85" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B85" s="37"/>
       <c r="C85" s="54" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D85" s="37"/>
       <c r="E85" s="37"/>
@@ -12087,7 +12416,7 @@
     <row r="88" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B88" s="53"/>
       <c r="C88" s="54" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D88" s="37"/>
       <c r="E88" s="37"/>
@@ -12600,7 +12929,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -12620,10 +12949,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="164" t="s">
+      <c r="A1" s="163" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="164"/>
+      <c r="B1" s="163"/>
       <c r="C1" s="29" t="s">
         <v>1</v>
       </c>
@@ -12636,7 +12965,7 @@
       </c>
       <c r="F1" s="34" t="str">
         <f>'Update History'!F1</f>
-        <v>TMF0020</v>
+        <v>OOF0033</v>
       </c>
       <c r="G1" s="29" t="s">
         <v>5</v>
@@ -12651,14 +12980,14 @@
       <c r="J1" s="35"/>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="164"/>
-      <c r="B2" s="164"/>
+      <c r="A2" s="163"/>
+      <c r="B2" s="163"/>
       <c r="C2" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="34" t="str">
         <f>'Update History'!D2</f>
-        <v>ASOFT-TM</v>
+        <v>ASOFT-OO</v>
       </c>
       <c r="E2" s="29" t="s">
         <v>4</v>
@@ -13047,7 +13376,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B1:G62"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
